--- a/Output/State_To_State_Table.xlsx
+++ b/Output/State_To_State_Table.xlsx
@@ -1,83 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\FCI\Output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\FCI_Fin\food_system_btp\food_system_btp\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E48AC53D-02B5-4AE2-A308-4A642C157AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{670EEFD8-B782-46BC-B034-BDF507E59021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F92D5222-A02D-477B-B120-4625CBB053A6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Wheat" sheetId="1" r:id="rId1"/>
-    <sheet name="Rice" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
-  <si>
-    <t>From_State</t>
-  </si>
-  <si>
-    <t>Bihar</t>
-  </si>
-  <si>
-    <t>Gujarat</t>
-  </si>
-  <si>
-    <t>Maharashtra</t>
-  </si>
-  <si>
-    <t>Rajasthan</t>
-  </si>
-  <si>
-    <t>Haryana</t>
-  </si>
-  <si>
-    <t>MP</t>
-  </si>
-  <si>
-    <t>Karnataka</t>
-  </si>
-  <si>
-    <t>Tamil Nadu</t>
-  </si>
-  <si>
-    <t>UP</t>
-  </si>
-  <si>
-    <t>Andhra Pradesh</t>
-  </si>
-  <si>
-    <t>Chattisgarh</t>
-  </si>
-  <si>
-    <t>Punjab</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -88,7 +54,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -96,30 +62,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,158 +381,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5FB680E-A61F-4502-8029-9E630794BB63}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>5</v>
-      </c>
-      <c r="C2">
-        <v>5</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>5</v>
-      </c>
-      <c r="D3">
-        <v>10</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>5</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>